--- a/COVID-19 Apps/Country Data.xlsx
+++ b/COVID-19 Apps/Country Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\COVID-19 Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44C6041-1103-47AC-8D11-9637A814EE18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F820BF16-0507-4E7A-A3A1-5D3C03425EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{F1D96CA6-85D8-47A9-B3B5-9350C0EB077E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2234" uniqueCount="585">
   <si>
     <t>Population</t>
   </si>
@@ -2255,8 +2255,8 @@
   <dimension ref="A1:J402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A287" sqref="A287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9278,6 +9278,9 @@
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>375</v>
+      </c>
       <c r="B287" t="s">
         <v>198</v>
       </c>

--- a/COVID-19 Apps/Country Data.xlsx
+++ b/COVID-19 Apps/Country Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="626">
   <si>
     <t xml:space="preserve">Favorites</t>
   </si>
@@ -1836,7 +1836,7 @@
     <t xml:space="preserve">CO</t>
   </si>
   <si>
-    <t xml:space="preserve">How to make county-level maps</t>
+    <t xml:space="preserve">GIS tools – commercial</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.storybench.org/build-interactive-county-level-map-tableau/</t>
@@ -1854,7 +1854,55 @@
     <t xml:space="preserve">https://appsource.microsoft.com/en-us/product/office/WA104380930?tab=Overview</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.storybench.org/how-to-build-an-interactive-county-level-map-like-the-new-york-times/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mapline.com/mapping/create-a-map/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.mapbusinessonline.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIS tools – gov</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://catalog.data.gov/dataset/national-county-map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIS tools – open-source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gisgeography.com/free-gis-software/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gislounge.com/open-source-gis-applications/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.softwaresuggest.com/blog/top-free-open-source-gis-software/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://intellspot.com/open-source-mapping-software/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIS examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County level maps: beds per county</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.oregonlive.com/coronavirus/2020/03/mapping-the-coronavirus-in-oregon-how-many-hospital-beds-does-each-county-have.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QGIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mangomap.com/industries/web-mapping/tutorials/how-to-make-a-web-map-from-regions-in-a-spreadsheet.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://flowingdata.com/2009/11/12/how-to-make-a-us-county-thematic-map-using-free-tools/</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +2058,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2159,10 +2207,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2177,10 +2221,6 @@
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2275,7 +2315,7 @@
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="30.33"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.53"/>
@@ -12454,23 +12494,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A4:C60"/>
+  <dimension ref="A4:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A66" activeCellId="0" sqref="A66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A90" activeCellId="0" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="37" width="80.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="80.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="37" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.38"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>589</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -12478,7 +12519,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>591</v>
       </c>
     </row>
@@ -12486,231 +12527,313 @@
       <c r="B7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="38" t="n">
+      <c r="B8" s="37" t="n">
         <v>43903</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="38" t="n">
+      <c r="B9" s="37" t="n">
         <v>43907</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B10" s="38" t="n">
+      <c r="B10" s="37" t="n">
         <v>43902</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="38" t="n">
+      <c r="B11" s="37" t="n">
         <v>43901</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="38" t="n">
+      <c r="B12" s="37" t="n">
         <v>43906</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="38" t="n">
+      <c r="B13" s="37" t="n">
         <v>43853</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="39" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="38" t="n">
+      <c r="B20" s="37" t="n">
         <v>43899</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="38" t="n">
+      <c r="B21" s="37" t="n">
         <v>43904</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B22" s="38" t="n">
+      <c r="B22" s="37" t="n">
         <v>43904</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B23" s="38" t="n">
+      <c r="B23" s="37" t="n">
         <v>43904</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="38" t="n">
+      <c r="B24" s="37" t="n">
         <v>43901</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B25" s="38" t="n">
+      <c r="B25" s="37" t="n">
         <v>43903</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="B26" s="38" t="n">
+      <c r="B26" s="37" t="n">
         <v>43904</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="B27" s="38" t="n">
+      <c r="B27" s="37" t="n">
         <v>43902</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B28" s="38" t="n">
+      <c r="B28" s="37" t="n">
         <v>43900</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="39" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="0" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="B35" s="38" t="n">
+      <c r="B35" s="37" t="n">
         <v>43852</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="0" t="s">
         <v>597</v>
       </c>
-      <c r="B36" s="38" t="n">
+      <c r="B36" s="37" t="n">
         <v>43887</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="39" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="0" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="B44" s="38" t="n">
+      <c r="B44" s="37" t="n">
         <v>43917</v>
       </c>
-      <c r="C44" s="41" t="n">
+      <c r="C44" s="40" t="n">
         <v>43955</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="0" t="s">
         <v>601</v>
       </c>
-      <c r="B45" s="38" t="n">
+      <c r="B45" s="37" t="n">
         <v>43915</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="B46" s="38" t="n">
+      <c r="B46" s="37" t="n">
         <v>43916</v>
       </c>
-      <c r="C46" s="41" t="n">
+      <c r="C46" s="40" t="n">
         <v>43932</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="0" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40" t="s">
+      <c r="A55" s="39" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="40" t="s">
+      <c r="A56" s="39" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="39" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="39" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="42" t="s">
+      <c r="A59" s="39" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="42" t="s">
+    <row r="60" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="39" t="s">
         <v>609</v>
       </c>
     </row>
+    <row r="61" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="39" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="39" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="39" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="39" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="39" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="39" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="39" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="39" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="39" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="39" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="39" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" display="https://www.worldatlas.com/which-countries-are-in-mandatory-lockdown-due-to-covid-19.html"/>
@@ -12722,7 +12845,17 @@
     <hyperlink ref="A57" r:id="rId7" display="https://mapchart.net/usa-counties.html"/>
     <hyperlink ref="A58" r:id="rId8" display="https://www.gislounge.com/mapping-county-demographic-data-in-r/"/>
     <hyperlink ref="A59" r:id="rId9" display="https://appsource.microsoft.com/en-us/product/office/WA104380930?tab=Overview"/>
-    <hyperlink ref="A60" r:id="rId10" display="https://catalog.data.gov/dataset/national-county-map"/>
+    <hyperlink ref="A60" r:id="rId10" display="https://www.storybench.org/how-to-build-an-interactive-county-level-map-like-the-new-york-times/"/>
+    <hyperlink ref="A61" r:id="rId11" display="https://mapline.com/mapping/create-a-map/"/>
+    <hyperlink ref="A62" r:id="rId12" display="https://www.mapbusinessonline.com/"/>
+    <hyperlink ref="A66" r:id="rId13" display="https://catalog.data.gov/dataset/national-county-map"/>
+    <hyperlink ref="A69" r:id="rId14" display="https://gisgeography.com/free-gis-software/"/>
+    <hyperlink ref="A70" r:id="rId15" display="https://www.gislounge.com/open-source-gis-applications/"/>
+    <hyperlink ref="A71" r:id="rId16" display="https://www.softwaresuggest.com/blog/top-free-open-source-gis-software/"/>
+    <hyperlink ref="A72" r:id="rId17" display="http://intellspot.com/open-source-mapping-software/"/>
+    <hyperlink ref="A76" r:id="rId18" display="https://www.oregonlive.com/coronavirus/2020/03/mapping-the-coronavirus-in-oregon-how-many-hospital-beds-does-each-county-have.html"/>
+    <hyperlink ref="A80" r:id="rId19" display="https://mangomap.com/industries/web-mapping/tutorials/how-to-make-a-web-map-from-regions-in-a-spreadsheet.html"/>
+    <hyperlink ref="A82" r:id="rId20" display="https://flowingdata.com/2009/11/12/how-to-make-a-us-county-thematic-map-using-free-tools/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/COVID-19 Apps/Country Data.xlsx
+++ b/COVID-19 Apps/Country Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\Beyond4P_Apps\COVID-19 Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC356D5-BD33-46F7-A5F0-8FE2A66B9F40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC667EA9-E451-4DD3-892C-F9EA00DF131D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="627">
   <si>
     <t>Favorites</t>
   </si>
@@ -1916,6 +1916,9 @@
   </si>
   <si>
     <t>https://flowingdata.com/2009/11/12/how-to-make-a-us-county-thematic-map-using-free-tools/</t>
+  </si>
+  <si>
+    <t>MWX</t>
   </si>
 </sst>
 </file>
@@ -2482,8 +2485,8 @@
   <dimension ref="A1:M402"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5109,7 +5112,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B104" t="s">
         <v>148</v>
@@ -5808,7 +5811,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>11</v>
+        <v>626</v>
       </c>
       <c r="B131" t="s">
         <v>186</v>
@@ -5964,7 +5967,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="B137" t="s">
         <v>192</v>
@@ -6978,7 +6981,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B176" t="s">
         <v>234</v>
@@ -7290,7 +7293,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>29</v>
+        <v>183</v>
       </c>
       <c r="B188" t="s">
         <v>246</v>

--- a/COVID-19 Apps/Country Data.xlsx
+++ b/COVID-19 Apps/Country Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\COVID-19 Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35437C47-79F6-4079-BD32-972EE1533AC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CB6630-3561-4A4E-BB6D-051C44370C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="797">
   <si>
     <t>Favorites</t>
   </si>
@@ -2426,6 +2426,9 @@
   </si>
   <si>
     <t>Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>LAWX</t>
   </si>
 </sst>
 </file>
@@ -3022,8 +3025,8 @@
   <dimension ref="A1:Q404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A376" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3328,7 +3331,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
@@ -3802,7 +3805,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>23</v>
+        <v>796</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -6808,7 +6811,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>11</v>
+        <v>622</v>
       </c>
       <c r="B133" t="s">
         <v>187</v>

--- a/COVID-19 Apps/Country Data.xlsx
+++ b/COVID-19 Apps/Country Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P_Apps\COVID-19 Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CB6630-3561-4A4E-BB6D-051C44370C1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEC28E7-0F7B-44B3-A61A-76EF637C9831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3025,8 +3025,8 @@
   <dimension ref="A1:Q404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B94" t="s">
         <v>135</v>
@@ -6782,7 +6782,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B132" t="s">
         <v>186</v>
@@ -7710,7 +7710,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="B164" t="s">
         <v>221</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B167" t="s">
         <v>224</v>
